--- a/measurements/detector_signals/cycle_1/82/radial_measurements_all.xlsx
+++ b/measurements/detector_signals/cycle_1/82/radial_measurements_all.xlsx
@@ -964,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G3" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -990,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G4" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1016,13 +1016,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G5" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1042,13 +1042,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.687223045571</v>
+        <v>0.687124404097</v>
       </c>
       <c r="G6" t="n">
         <v>0.684890656064</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.00233238950743</v>
+        <v>-0.00223374803318</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1068,13 +1068,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G7" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1094,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G8" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1120,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G9" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1146,13 +1146,13 @@
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G10" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1172,13 +1172,13 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G11" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1198,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G12" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1224,13 +1224,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G13" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1250,13 +1250,13 @@
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.22272008734</v>
+        <v>1.22254458259</v>
       </c>
       <c r="G14" t="n">
         <v>1.18489065606</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0378294312765</v>
+        <v>-0.037653926526</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1276,13 +1276,13 @@
         <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G15" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1302,13 +1302,13 @@
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G16" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1328,13 +1328,13 @@
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G17" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1354,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G18" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1380,13 +1380,13 @@
         <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G19" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1406,13 +1406,13 @@
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.64780771609</v>
+        <v>0.647714732147</v>
       </c>
       <c r="G20" t="n">
         <v>0.647117296223</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.000690419867381</v>
+        <v>-0.000597435924145</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1432,13 +1432,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G21" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1458,13 +1458,13 @@
         <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G22" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1484,13 +1484,13 @@
         <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G23" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1510,13 +1510,13 @@
         <v>45</v>
       </c>
       <c r="F24" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G24" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1536,13 +1536,13 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>0.98388238637</v>
+        <v>0.983741163502</v>
       </c>
       <c r="G25" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0067452094317</v>
+        <v>-0.00660398656334</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1562,13 +1562,13 @@
         <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G26" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1588,13 +1588,13 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G27" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1614,13 +1614,13 @@
         <v>51</v>
       </c>
       <c r="F28" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G28" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1640,13 +1640,13 @@
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G29" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1666,13 +1666,13 @@
         <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>0.64780771609</v>
+        <v>0.647714732147</v>
       </c>
       <c r="G30" t="n">
         <v>0.647117296223</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.000690419867381</v>
+        <v>-0.000597435924145</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1692,13 +1692,13 @@
         <v>20</v>
       </c>
       <c r="F31" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G31" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1718,13 +1718,13 @@
         <v>22</v>
       </c>
       <c r="F32" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G32" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1744,13 +1744,13 @@
         <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G33" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1770,13 +1770,13 @@
         <v>59</v>
       </c>
       <c r="F34" t="n">
-        <v>1.05913393858</v>
+        <v>1.05898191439</v>
       </c>
       <c r="G34" t="n">
         <v>1.11928429423</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0601503556545</v>
+        <v>0.0603023798449</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1796,13 +1796,13 @@
         <v>61</v>
       </c>
       <c r="F35" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G35" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H35" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1822,13 +1822,13 @@
         <v>63</v>
       </c>
       <c r="F36" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G36" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1848,13 +1848,13 @@
         <v>25</v>
       </c>
       <c r="F37" t="n">
-        <v>1.31275260698</v>
+        <v>1.31256417929</v>
       </c>
       <c r="G37" t="n">
         <v>1.29522862823</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0175239787495</v>
+        <v>-0.017335551059</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1874,13 +1874,13 @@
         <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G38" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1900,13 +1900,13 @@
         <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G39" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H39" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1926,13 +1926,13 @@
         <v>70</v>
       </c>
       <c r="F40" t="n">
-        <v>1.05913393858</v>
+        <v>1.05898191439</v>
       </c>
       <c r="G40" t="n">
         <v>1.11928429423</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0601503556545</v>
+        <v>0.0603023798449</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1952,13 +1952,13 @@
         <v>72</v>
       </c>
       <c r="F41" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G41" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1978,13 +1978,13 @@
         <v>74</v>
       </c>
       <c r="F42" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G42" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2004,13 +2004,13 @@
         <v>76</v>
       </c>
       <c r="F43" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G43" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2030,13 +2030,13 @@
         <v>78</v>
       </c>
       <c r="F44" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G44" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2056,13 +2056,13 @@
         <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>1.31088130198</v>
+        <v>1.31069314289</v>
       </c>
       <c r="G45" t="n">
         <v>1.31510934394</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00422804195629</v>
+        <v>0.00441620104677</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2082,13 +2082,13 @@
         <v>81</v>
       </c>
       <c r="F46" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G46" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2108,13 +2108,13 @@
         <v>83</v>
       </c>
       <c r="F47" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G47" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2134,13 +2134,13 @@
         <v>85</v>
       </c>
       <c r="F48" t="n">
-        <v>1.10810234982</v>
+        <v>1.10794329687</v>
       </c>
       <c r="G48" t="n">
         <v>1.11133200795</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00322965813221</v>
+        <v>0.00338871108261</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2160,13 +2160,13 @@
         <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G49" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2186,13 +2186,13 @@
         <v>88</v>
       </c>
       <c r="F50" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G50" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2212,13 +2212,13 @@
         <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>1.31088130198</v>
+        <v>1.31069314289</v>
       </c>
       <c r="G51" t="n">
         <v>1.31510934394</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00422804195629</v>
+        <v>0.00441620104677</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2238,13 +2238,13 @@
         <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G52" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2264,13 +2264,13 @@
         <v>92</v>
       </c>
       <c r="F53" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G53" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2290,13 +2290,13 @@
         <v>34</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G54" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2316,13 +2316,13 @@
         <v>95</v>
       </c>
       <c r="F55" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G55" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2342,13 +2342,13 @@
         <v>36</v>
       </c>
       <c r="F56" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G56" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2368,13 +2368,13 @@
         <v>98</v>
       </c>
       <c r="F57" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G57" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H57" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2394,13 +2394,13 @@
         <v>100</v>
       </c>
       <c r="F58" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G58" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2420,13 +2420,13 @@
         <v>38</v>
       </c>
       <c r="F59" t="n">
-        <v>1.35603851129</v>
+        <v>1.36215946906</v>
       </c>
       <c r="G59" t="n">
         <v>1.35685884692</v>
       </c>
       <c r="H59" t="n">
-        <v>0.000820335628395</v>
+        <v>-0.00530062214111</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2446,13 +2446,13 @@
         <v>103</v>
       </c>
       <c r="F60" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G60" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2460,13 +2460,13 @@
         <v>40</v>
       </c>
       <c r="F61" t="n">
-        <v>1.33480861894</v>
+        <v>1.33461702541</v>
       </c>
       <c r="G61" t="n">
         <v>1.33001988072</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.00478873822439</v>
+        <v>-0.0045971446939</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2474,13 +2474,13 @@
         <v>104</v>
       </c>
       <c r="F62" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G62" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2488,13 +2488,13 @@
         <v>105</v>
       </c>
       <c r="F63" t="n">
-        <v>1.35603851129</v>
+        <v>1.36215946906</v>
       </c>
       <c r="G63" t="n">
         <v>1.35685884692</v>
       </c>
       <c r="H63" t="n">
-        <v>0.000820335628395</v>
+        <v>-0.00530062214111</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2502,13 +2502,13 @@
         <v>106</v>
       </c>
       <c r="F64" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G64" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2516,13 +2516,13 @@
         <v>107</v>
       </c>
       <c r="F65" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G65" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H65" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2530,13 +2530,13 @@
         <v>108</v>
       </c>
       <c r="F66" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G66" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2544,13 +2544,13 @@
         <v>42</v>
       </c>
       <c r="F67" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G67" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2558,13 +2558,13 @@
         <v>109</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G68" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2572,13 +2572,13 @@
         <v>110</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G69" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2586,13 +2586,13 @@
         <v>111</v>
       </c>
       <c r="F70" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G70" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2600,13 +2600,13 @@
         <v>112</v>
       </c>
       <c r="F71" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G71" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2614,13 +2614,13 @@
         <v>44</v>
       </c>
       <c r="F72" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G72" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2628,13 +2628,13 @@
         <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G73" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2642,13 +2642,13 @@
         <v>114</v>
       </c>
       <c r="F74" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G74" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2656,13 +2656,13 @@
         <v>46</v>
       </c>
       <c r="F75" t="n">
-        <v>1.30482427276</v>
+        <v>1.30463698307</v>
       </c>
       <c r="G75" t="n">
         <v>1.2972166998</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.0076075729589</v>
+        <v>-0.00742028326842</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2670,13 +2670,13 @@
         <v>115</v>
       </c>
       <c r="F76" t="n">
-        <v>0.97969068316</v>
+        <v>0.979550061953</v>
       </c>
       <c r="G76" t="n">
         <v>1.00894632207</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0292556389075</v>
+        <v>0.0293962601149</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2684,13 +2684,13 @@
         <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>1.30482427276</v>
+        <v>1.30463698307</v>
       </c>
       <c r="G77" t="n">
         <v>1.2972166998</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.0076075729589</v>
+        <v>-0.00742028326842</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2698,13 +2698,13 @@
         <v>47</v>
       </c>
       <c r="F78" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G78" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2712,13 +2712,13 @@
         <v>117</v>
       </c>
       <c r="F79" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G79" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2726,13 +2726,13 @@
         <v>118</v>
       </c>
       <c r="F80" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G80" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2740,13 +2740,13 @@
         <v>49</v>
       </c>
       <c r="F81" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G81" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2754,13 +2754,13 @@
         <v>119</v>
       </c>
       <c r="F82" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G82" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2768,13 +2768,13 @@
         <v>120</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G83" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2782,13 +2782,13 @@
         <v>50</v>
       </c>
       <c r="F84" t="n">
-        <v>0.687223045571</v>
+        <v>0.687124404097</v>
       </c>
       <c r="G84" t="n">
         <v>0.684890656064</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.00233238950743</v>
+        <v>-0.00223374803318</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2796,13 +2796,13 @@
         <v>121</v>
       </c>
       <c r="F85" t="n">
-        <v>1.22272008734</v>
+        <v>1.22254458259</v>
       </c>
       <c r="G85" t="n">
         <v>1.18489065606</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.0378294312765</v>
+        <v>-0.037653926526</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2810,13 +2810,13 @@
         <v>52</v>
       </c>
       <c r="F86" t="n">
-        <v>0.98388238637</v>
+        <v>0.983741163502</v>
       </c>
       <c r="G86" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.0067452094317</v>
+        <v>-0.00660398656334</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2824,13 +2824,13 @@
         <v>122</v>
       </c>
       <c r="F87" t="n">
-        <v>1.31275260698</v>
+        <v>1.31256417929</v>
       </c>
       <c r="G87" t="n">
         <v>1.29522862823</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.0175239787495</v>
+        <v>-0.017335551059</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2838,13 +2838,13 @@
         <v>53</v>
       </c>
       <c r="F88" t="n">
-        <v>1.10810234982</v>
+        <v>1.10794329687</v>
       </c>
       <c r="G88" t="n">
         <v>1.11133200795</v>
       </c>
       <c r="H88" t="n">
-        <v>0.00322965813221</v>
+        <v>0.00338871108261</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2852,13 +2852,13 @@
         <v>123</v>
       </c>
       <c r="F89" t="n">
-        <v>1.33480861894</v>
+        <v>1.33461702541</v>
       </c>
       <c r="G89" t="n">
         <v>1.33001988072</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.00478873822439</v>
+        <v>-0.0045971446939</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2866,13 +2866,13 @@
         <v>55</v>
       </c>
       <c r="F90" t="n">
-        <v>0.97969068316</v>
+        <v>0.979550061953</v>
       </c>
       <c r="G90" t="n">
         <v>1.00894632207</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0292556389075</v>
+        <v>0.0293962601149</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2880,13 +2880,13 @@
         <v>124</v>
       </c>
       <c r="F91" t="n">
-        <v>0.97969068316</v>
+        <v>0.979550061953</v>
       </c>
       <c r="G91" t="n">
         <v>1.00894632207</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0292556389075</v>
+        <v>0.0293962601149</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -2894,13 +2894,13 @@
         <v>56</v>
       </c>
       <c r="F92" t="n">
-        <v>1.33480861894</v>
+        <v>1.33461702541</v>
       </c>
       <c r="G92" t="n">
         <v>1.33001988072</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.00478873822439</v>
+        <v>-0.0045971446939</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2908,13 +2908,13 @@
         <v>125</v>
       </c>
       <c r="F93" t="n">
-        <v>1.10810234982</v>
+        <v>1.10794329687</v>
       </c>
       <c r="G93" t="n">
         <v>1.11133200795</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00322965813221</v>
+        <v>0.00338871108261</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2922,13 +2922,13 @@
         <v>57</v>
       </c>
       <c r="F94" t="n">
-        <v>1.31275260698</v>
+        <v>1.31256417929</v>
       </c>
       <c r="G94" t="n">
         <v>1.29522862823</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.0175239787495</v>
+        <v>-0.017335551059</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -2936,13 +2936,13 @@
         <v>58</v>
       </c>
       <c r="F95" t="n">
-        <v>0.98388238637</v>
+        <v>0.983741163502</v>
       </c>
       <c r="G95" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.0067452094317</v>
+        <v>-0.00660398656334</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -2950,13 +2950,13 @@
         <v>60</v>
       </c>
       <c r="F96" t="n">
-        <v>1.22272008734</v>
+        <v>1.22254458259</v>
       </c>
       <c r="G96" t="n">
         <v>1.18489065606</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.0378294312765</v>
+        <v>-0.037653926526</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2964,13 +2964,13 @@
         <v>126</v>
       </c>
       <c r="F97" t="n">
-        <v>0.687223045571</v>
+        <v>0.687124404097</v>
       </c>
       <c r="G97" t="n">
         <v>0.684890656064</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.00233238950743</v>
+        <v>-0.00223374803318</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2978,13 +2978,13 @@
         <v>127</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G98" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2992,13 +2992,13 @@
         <v>62</v>
       </c>
       <c r="F99" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G99" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3006,13 +3006,13 @@
         <v>128</v>
       </c>
       <c r="F100" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G100" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3020,13 +3020,13 @@
         <v>129</v>
       </c>
       <c r="F101" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G101" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H101" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3034,13 +3034,13 @@
         <v>130</v>
       </c>
       <c r="F102" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G102" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3048,13 +3048,13 @@
         <v>131</v>
       </c>
       <c r="F103" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G103" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3062,13 +3062,13 @@
         <v>132</v>
       </c>
       <c r="F104" t="n">
-        <v>1.30482427276</v>
+        <v>1.30463698307</v>
       </c>
       <c r="G104" t="n">
         <v>1.2972166998</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.0076075729589</v>
+        <v>-0.00742028326842</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3076,13 +3076,13 @@
         <v>133</v>
       </c>
       <c r="F105" t="n">
-        <v>0.97969068316</v>
+        <v>0.979550061953</v>
       </c>
       <c r="G105" t="n">
         <v>1.00894632207</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0292556389075</v>
+        <v>0.0293962601149</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3090,13 +3090,13 @@
         <v>64</v>
       </c>
       <c r="F106" t="n">
-        <v>1.30482427276</v>
+        <v>1.30463698307</v>
       </c>
       <c r="G106" t="n">
         <v>1.2972166998</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.0076075729589</v>
+        <v>-0.00742028326842</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3104,13 +3104,13 @@
         <v>134</v>
       </c>
       <c r="F107" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G107" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3118,13 +3118,13 @@
         <v>65</v>
       </c>
       <c r="F108" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G108" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3132,13 +3132,13 @@
         <v>135</v>
       </c>
       <c r="F109" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G109" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H109" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3146,13 +3146,13 @@
         <v>136</v>
       </c>
       <c r="F110" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G110" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3160,13 +3160,13 @@
         <v>137</v>
       </c>
       <c r="F111" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G111" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3174,13 +3174,13 @@
         <v>67</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G112" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3188,13 +3188,13 @@
         <v>138</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G113" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3202,13 +3202,13 @@
         <v>139</v>
       </c>
       <c r="F114" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G114" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3216,13 +3216,13 @@
         <v>140</v>
       </c>
       <c r="F115" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G115" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3230,13 +3230,13 @@
         <v>141</v>
       </c>
       <c r="F116" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G116" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H116" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3244,13 +3244,13 @@
         <v>69</v>
       </c>
       <c r="F117" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G117" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3258,13 +3258,13 @@
         <v>142</v>
       </c>
       <c r="F118" t="n">
-        <v>1.35603851129</v>
+        <v>1.36215946906</v>
       </c>
       <c r="G118" t="n">
         <v>1.35685884692</v>
       </c>
       <c r="H118" t="n">
-        <v>0.000820335628395</v>
+        <v>-0.00530062214111</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3272,13 +3272,13 @@
         <v>71</v>
       </c>
       <c r="F119" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G119" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3286,13 +3286,13 @@
         <v>143</v>
       </c>
       <c r="F120" t="n">
-        <v>1.33480861894</v>
+        <v>1.33461702541</v>
       </c>
       <c r="G120" t="n">
         <v>1.33001988072</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.00478873822439</v>
+        <v>-0.0045971446939</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3300,13 +3300,13 @@
         <v>144</v>
       </c>
       <c r="F121" t="n">
-        <v>1.09467845412</v>
+        <v>1.09452132799</v>
       </c>
       <c r="G121" t="n">
         <v>1.11033797217</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0156595180469</v>
+        <v>0.0158166441773</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3314,13 +3314,13 @@
         <v>145</v>
       </c>
       <c r="F122" t="n">
-        <v>1.35603851129</v>
+        <v>1.36215946906</v>
       </c>
       <c r="G122" t="n">
         <v>1.35685884692</v>
       </c>
       <c r="H122" t="n">
-        <v>0.000820335628395</v>
+        <v>-0.00530062214111</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3328,13 +3328,13 @@
         <v>146</v>
       </c>
       <c r="F123" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G123" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3342,13 +3342,13 @@
         <v>73</v>
       </c>
       <c r="F124" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G124" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H124" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3356,13 +3356,13 @@
         <v>147</v>
       </c>
       <c r="F125" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G125" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -3370,13 +3370,13 @@
         <v>148</v>
       </c>
       <c r="F126" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G126" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3384,13 +3384,13 @@
         <v>149</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G127" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -3398,13 +3398,13 @@
         <v>75</v>
       </c>
       <c r="F128" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G128" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3412,13 +3412,13 @@
         <v>150</v>
       </c>
       <c r="F129" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G129" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3426,13 +3426,13 @@
         <v>77</v>
       </c>
       <c r="F130" t="n">
-        <v>1.31088130198</v>
+        <v>1.31069314289</v>
       </c>
       <c r="G130" t="n">
         <v>1.31510934394</v>
       </c>
       <c r="H130" t="n">
-        <v>0.00422804195629</v>
+        <v>0.00441620104677</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3440,13 +3440,13 @@
         <v>151</v>
       </c>
       <c r="F131" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G131" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3454,13 +3454,13 @@
         <v>152</v>
       </c>
       <c r="F132" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G132" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3468,13 +3468,13 @@
         <v>79</v>
       </c>
       <c r="F133" t="n">
-        <v>1.10810234982</v>
+        <v>1.10794329687</v>
       </c>
       <c r="G133" t="n">
         <v>1.11133200795</v>
       </c>
       <c r="H133" t="n">
-        <v>0.00322965813221</v>
+        <v>0.00338871108261</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3482,13 +3482,13 @@
         <v>153</v>
       </c>
       <c r="F134" t="n">
-        <v>1.36451361618</v>
+        <v>1.3643177589</v>
       </c>
       <c r="G134" t="n">
         <v>1.34592445328</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0185891628998</v>
+        <v>-0.0183933056193</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3496,13 +3496,13 @@
         <v>154</v>
       </c>
       <c r="F135" t="n">
-        <v>1.06869315567</v>
+        <v>1.06853975937</v>
       </c>
       <c r="G135" t="n">
         <v>1.10337972167</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0346865659999</v>
+        <v>0.0348399623003</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3510,13 +3510,13 @@
         <v>80</v>
       </c>
       <c r="F136" t="n">
-        <v>1.31088130198</v>
+        <v>1.31069314289</v>
       </c>
       <c r="G136" t="n">
         <v>1.31510934394</v>
       </c>
       <c r="H136" t="n">
-        <v>0.00422804195629</v>
+        <v>0.00441620104677</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3524,13 +3524,13 @@
         <v>155</v>
       </c>
       <c r="F137" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G137" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3538,13 +3538,13 @@
         <v>82</v>
       </c>
       <c r="F138" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G138" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3552,13 +3552,13 @@
         <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G139" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3566,13 +3566,13 @@
         <v>157</v>
       </c>
       <c r="F140" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G140" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3580,13 +3580,13 @@
         <v>158</v>
       </c>
       <c r="F141" t="n">
-        <v>1.05913393858</v>
+        <v>1.05898191439</v>
       </c>
       <c r="G141" t="n">
         <v>1.11928429423</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0601503556545</v>
+        <v>0.0603023798449</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3594,13 +3594,13 @@
         <v>84</v>
       </c>
       <c r="F142" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G142" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H142" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3608,13 +3608,13 @@
         <v>159</v>
       </c>
       <c r="F143" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G143" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H143" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -3622,13 +3622,13 @@
         <v>160</v>
       </c>
       <c r="F144" t="n">
-        <v>1.31275260698</v>
+        <v>1.31256417929</v>
       </c>
       <c r="G144" t="n">
         <v>1.29522862823</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.0175239787495</v>
+        <v>-0.017335551059</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -3636,13 +3636,13 @@
         <v>86</v>
       </c>
       <c r="F145" t="n">
-        <v>1.060591541</v>
+        <v>1.06043930758</v>
       </c>
       <c r="G145" t="n">
-        <v>1.06858846918</v>
+        <v>1.06858846919</v>
       </c>
       <c r="H145" t="n">
-        <v>0.00799692818482</v>
+        <v>0.00814916160521</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -3650,13 +3650,13 @@
         <v>161</v>
       </c>
       <c r="F146" t="n">
-        <v>1.27319933962</v>
+        <v>1.27301658926</v>
       </c>
       <c r="G146" t="n">
         <v>1.27335984095</v>
       </c>
       <c r="H146" t="n">
-        <v>0.000160501334186</v>
+        <v>0.00034325169465</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -3664,13 +3664,13 @@
         <v>87</v>
       </c>
       <c r="F147" t="n">
-        <v>1.05913393858</v>
+        <v>1.05898191439</v>
       </c>
       <c r="G147" t="n">
         <v>1.11928429423</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0601503556545</v>
+        <v>0.0603023798449</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -3678,13 +3678,13 @@
         <v>162</v>
       </c>
       <c r="F148" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G148" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -3692,13 +3692,13 @@
         <v>163</v>
       </c>
       <c r="F149" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G149" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -3706,13 +3706,13 @@
         <v>164</v>
       </c>
       <c r="F150" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G150" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -3720,13 +3720,13 @@
         <v>89</v>
       </c>
       <c r="F151" t="n">
-        <v>0.64780771609</v>
+        <v>0.647714732147</v>
       </c>
       <c r="G151" t="n">
         <v>0.647117296223</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.000690419867381</v>
+        <v>-0.000597435924145</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -3734,13 +3734,13 @@
         <v>165</v>
       </c>
       <c r="F152" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G152" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -3748,13 +3748,13 @@
         <v>90</v>
       </c>
       <c r="F153" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G153" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -3762,13 +3762,13 @@
         <v>166</v>
       </c>
       <c r="F154" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G154" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -3776,13 +3776,13 @@
         <v>167</v>
       </c>
       <c r="F155" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G155" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -3790,13 +3790,13 @@
         <v>91</v>
       </c>
       <c r="F156" t="n">
-        <v>0.98388238637</v>
+        <v>0.983741163502</v>
       </c>
       <c r="G156" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.0067452094317</v>
+        <v>-0.00660398656334</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -3804,13 +3804,13 @@
         <v>168</v>
       </c>
       <c r="F157" t="n">
-        <v>1.23593515541</v>
+        <v>1.23575775382</v>
       </c>
       <c r="G157" t="n">
         <v>1.22465208748</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.0112830679349</v>
+        <v>-0.0111056663445</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -3818,13 +3818,13 @@
         <v>169</v>
       </c>
       <c r="F158" t="n">
-        <v>0.96415298483</v>
+        <v>0.9640145938469999</v>
       </c>
       <c r="G158" t="n">
         <v>0.9622266401589999</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.00192634467102</v>
+        <v>-0.00178795368767</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -3832,13 +3832,13 @@
         <v>170</v>
       </c>
       <c r="F159" t="n">
-        <v>1.20492765396</v>
+        <v>1.20475470307</v>
       </c>
       <c r="G159" t="n">
         <v>1.21968190855</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0147542545886</v>
+        <v>0.0149272054791</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -3846,13 +3846,13 @@
         <v>171</v>
       </c>
       <c r="F160" t="n">
-        <v>0.96824877746</v>
+        <v>0.968109798582</v>
       </c>
       <c r="G160" t="n">
-        <v>0.977137176938</v>
+        <v>0.977137176939</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0088883994783</v>
+        <v>0.009027378356659999</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -3860,13 +3860,13 @@
         <v>172</v>
       </c>
       <c r="F161" t="n">
-        <v>0.64780771609</v>
+        <v>0.647714732147</v>
       </c>
       <c r="G161" t="n">
         <v>0.647117296223</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.000690419867381</v>
+        <v>-0.000597435924145</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -3874,13 +3874,13 @@
         <v>93</v>
       </c>
       <c r="F162" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G162" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -3888,13 +3888,13 @@
         <v>94</v>
       </c>
       <c r="F163" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G163" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -3902,13 +3902,13 @@
         <v>173</v>
       </c>
       <c r="F164" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G164" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -3916,13 +3916,13 @@
         <v>174</v>
       </c>
       <c r="F165" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G165" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -3930,13 +3930,13 @@
         <v>96</v>
       </c>
       <c r="F166" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G166" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -3944,13 +3944,13 @@
         <v>175</v>
       </c>
       <c r="F167" t="n">
-        <v>1.22272008734</v>
+        <v>1.22254458259</v>
       </c>
       <c r="G167" t="n">
         <v>1.18489065606</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.0378294312765</v>
+        <v>-0.037653926526</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -3958,13 +3958,13 @@
         <v>176</v>
       </c>
       <c r="F168" t="n">
-        <v>0.814655309518</v>
+        <v>0.814538376883</v>
       </c>
       <c r="G168" t="n">
         <v>0.813121272366</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.00153403715225</v>
+        <v>-0.00141710451696</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -3972,13 +3972,13 @@
         <v>97</v>
       </c>
       <c r="F169" t="n">
-        <v>1.15794126526</v>
+        <v>1.15777505862</v>
       </c>
       <c r="G169" t="n">
         <v>1.14115308151</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.0167881837491</v>
+        <v>-0.0166219771087</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -3986,13 +3986,13 @@
         <v>99</v>
       </c>
       <c r="F170" t="n">
-        <v>0.744191369563</v>
+        <v>0.744084551064</v>
       </c>
       <c r="G170" t="n">
         <v>0.74055666004</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.00363470952329</v>
+        <v>-0.00352789102402</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -4000,13 +4000,13 @@
         <v>177</v>
       </c>
       <c r="F171" t="n">
-        <v>0.536828273627</v>
+        <v>0.536751219266</v>
       </c>
       <c r="G171" t="n">
         <v>0.5218687872759999</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.0149594863507</v>
+        <v>-0.0148824319895</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -4014,13 +4014,13 @@
         <v>101</v>
       </c>
       <c r="F172" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G172" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -4028,13 +4028,13 @@
         <v>178</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G173" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -4042,13 +4042,13 @@
         <v>179</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G174" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -4056,13 +4056,13 @@
         <v>102</v>
       </c>
       <c r="F175" t="n">
-        <v>0.687223045571</v>
+        <v>0.687124404097</v>
       </c>
       <c r="G175" t="n">
         <v>0.684890656064</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.00233238950743</v>
+        <v>-0.00223374803318</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -4070,13 +4070,13 @@
         <v>180</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7144741911569999</v>
+        <v>0.714371638153</v>
       </c>
       <c r="G176" t="n">
         <v>0.7037773359840001</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.010696855173</v>
+        <v>-0.0105943021687</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4084,13 +4084,13 @@
         <v>181</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6393978224320001</v>
+        <v>0.639306045614</v>
       </c>
       <c r="G177" t="n">
         <v>0.6282306163019999</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.0111672061299</v>
+        <v>-0.0110754293116</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4098,13 +4098,13 @@
         <v>182</v>
       </c>
       <c r="F178" t="n">
-        <v>0.503638330751</v>
+        <v>0.503566040353</v>
       </c>
       <c r="G178" t="n">
         <v>0.501988071571</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.00165025918046</v>
+        <v>-0.00157796878228</v>
       </c>
     </row>
   </sheetData>
